--- a/Base Pétrole finale.xlsx
+++ b/Base Pétrole finale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIVS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3253E35-B8D7-4C02-9A2E-CC47A1B490B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C47F3-F17B-4BA1-8555-B831C85F038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5244" yWindow="1536" windowWidth="15936" windowHeight="9000" xr2:uid="{971A5B66-3E97-44FD-8E9E-FF5D2D9C8E39}"/>
   </bookViews>
@@ -952,9 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24C6CBD-5420-4CE8-BA39-DAA188C3FEB4}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY53" sqref="AY53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM50" sqref="AM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,7 +981,9 @@
     <col min="22" max="31" width="11.5546875" style="16"/>
     <col min="32" max="32" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.6640625" style="16" customWidth="1"/>
-    <col min="34" max="42" width="11.5546875" style="16"/>
+    <col min="34" max="38" width="11.5546875" style="16"/>
+    <col min="39" max="39" width="15.88671875" style="16" customWidth="1"/>
+    <col min="40" max="42" width="11.5546875" style="16"/>
     <col min="43" max="44" width="29.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="29.44140625" style="16" customWidth="1"/>
     <col min="46" max="46" width="12.88671875" style="16" customWidth="1"/>
@@ -1208,7 +1210,9 @@
       <c r="AL2" s="8">
         <v>0</v>
       </c>
-      <c r="AM2" s="8"/>
+      <c r="AM2" s="8">
+        <v>0</v>
+      </c>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
@@ -1293,7 +1297,9 @@
       <c r="AL3" s="8">
         <v>0</v>
       </c>
-      <c r="AM3" s="8"/>
+      <c r="AM3" s="8">
+        <v>0</v>
+      </c>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
@@ -1374,7 +1380,9 @@
       <c r="AL4" s="8">
         <v>0</v>
       </c>
-      <c r="AM4" s="8"/>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
@@ -1451,7 +1459,9 @@
       <c r="AL5" s="8">
         <v>0</v>
       </c>
-      <c r="AM5" s="8"/>
+      <c r="AM5" s="8">
+        <v>0</v>
+      </c>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
@@ -1530,7 +1540,9 @@
       <c r="AL6" s="8">
         <v>0</v>
       </c>
-      <c r="AM6" s="8"/>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
@@ -1617,7 +1629,9 @@
       <c r="AL7" s="8">
         <v>0</v>
       </c>
-      <c r="AM7" s="8"/>
+      <c r="AM7" s="8">
+        <v>0</v>
+      </c>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
@@ -1700,7 +1714,9 @@
       <c r="AL8" s="8">
         <v>0</v>
       </c>
-      <c r="AM8" s="8"/>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
@@ -1785,7 +1801,9 @@
       <c r="AL9" s="8">
         <v>0</v>
       </c>
-      <c r="AM9" s="8"/>
+      <c r="AM9" s="8">
+        <v>0</v>
+      </c>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
@@ -1870,7 +1888,9 @@
       <c r="AL10" s="8">
         <v>0</v>
       </c>
-      <c r="AM10" s="8"/>
+      <c r="AM10" s="8">
+        <v>0</v>
+      </c>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
@@ -1947,7 +1967,9 @@
       <c r="AL11" s="8">
         <v>0</v>
       </c>
-      <c r="AM11" s="8"/>
+      <c r="AM11" s="8">
+        <v>0</v>
+      </c>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8"/>
@@ -2024,7 +2046,9 @@
       <c r="AL12" s="8">
         <v>0</v>
       </c>
-      <c r="AM12" s="8"/>
+      <c r="AM12" s="8">
+        <v>0</v>
+      </c>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8"/>
@@ -2101,7 +2125,9 @@
       <c r="AL13" s="8">
         <v>0</v>
       </c>
-      <c r="AM13" s="8"/>
+      <c r="AM13" s="8">
+        <v>0</v>
+      </c>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
@@ -2178,7 +2204,9 @@
       <c r="AL14" s="8">
         <v>0</v>
       </c>
-      <c r="AM14" s="8"/>
+      <c r="AM14" s="8">
+        <v>0</v>
+      </c>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
@@ -2255,7 +2283,9 @@
       <c r="AL15" s="8">
         <v>0</v>
       </c>
-      <c r="AM15" s="8"/>
+      <c r="AM15" s="8">
+        <v>0</v>
+      </c>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
@@ -2336,7 +2366,9 @@
       <c r="AL16" s="8">
         <v>0</v>
       </c>
-      <c r="AM16" s="8"/>
+      <c r="AM16" s="8">
+        <v>0</v>
+      </c>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
@@ -2413,7 +2445,9 @@
       <c r="AL17" s="8">
         <v>0</v>
       </c>
-      <c r="AM17" s="8"/>
+      <c r="AM17" s="8">
+        <v>0</v>
+      </c>
       <c r="AN17" s="8"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
@@ -2500,7 +2534,9 @@
       <c r="AL18" s="8">
         <v>0</v>
       </c>
-      <c r="AM18" s="8"/>
+      <c r="AM18" s="8">
+        <v>0</v>
+      </c>
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
@@ -2587,7 +2623,9 @@
       <c r="AL19" s="8">
         <v>0</v>
       </c>
-      <c r="AM19" s="8"/>
+      <c r="AM19" s="8">
+        <v>0</v>
+      </c>
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
@@ -2664,7 +2702,9 @@
       <c r="AL20" s="8">
         <v>0</v>
       </c>
-      <c r="AM20" s="8"/>
+      <c r="AM20" s="8">
+        <v>0</v>
+      </c>
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
@@ -2741,7 +2781,9 @@
       <c r="AL21" s="8">
         <v>0</v>
       </c>
-      <c r="AM21" s="8"/>
+      <c r="AM21" s="8">
+        <v>0</v>
+      </c>
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="8"/>
@@ -2820,7 +2862,9 @@
       <c r="AL22" s="8">
         <v>0</v>
       </c>
-      <c r="AM22" s="8"/>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
@@ -2907,7 +2951,9 @@
       <c r="AL23" s="8">
         <v>0</v>
       </c>
-      <c r="AM23" s="8"/>
+      <c r="AM23" s="8">
+        <v>0</v>
+      </c>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
@@ -3000,7 +3046,9 @@
       <c r="AL24" s="8">
         <v>0</v>
       </c>
-      <c r="AM24" s="8"/>
+      <c r="AM24" s="8">
+        <v>0</v>
+      </c>
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
@@ -3087,7 +3135,9 @@
       <c r="AL25" s="8">
         <v>0</v>
       </c>
-      <c r="AM25" s="8"/>
+      <c r="AM25" s="8">
+        <v>0</v>
+      </c>
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
@@ -3178,7 +3228,9 @@
       <c r="AL26" s="8">
         <v>0</v>
       </c>
-      <c r="AM26" s="8"/>
+      <c r="AM26" s="8">
+        <v>0</v>
+      </c>
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
@@ -3263,7 +3315,9 @@
       <c r="AL27" s="8">
         <v>0</v>
       </c>
-      <c r="AM27" s="8"/>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
@@ -3348,7 +3402,9 @@
       <c r="AL28" s="8">
         <v>0</v>
       </c>
-      <c r="AM28" s="8"/>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
@@ -3433,7 +3489,9 @@
       <c r="AL29" s="8">
         <v>0</v>
       </c>
-      <c r="AM29" s="8"/>
+      <c r="AM29" s="8">
+        <v>0</v>
+      </c>
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
@@ -3516,7 +3574,9 @@
       <c r="AL30" s="8">
         <v>0</v>
       </c>
-      <c r="AM30" s="8"/>
+      <c r="AM30" s="8">
+        <v>0</v>
+      </c>
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
@@ -3599,7 +3659,9 @@
       <c r="AL31" s="8">
         <v>0</v>
       </c>
-      <c r="AM31" s="8"/>
+      <c r="AM31" s="8">
+        <v>0</v>
+      </c>
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
@@ -3686,7 +3748,9 @@
       <c r="AL32" s="8">
         <v>0</v>
       </c>
-      <c r="AM32" s="8"/>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
@@ -3771,7 +3835,9 @@
       <c r="AL33" s="8">
         <v>0</v>
       </c>
-      <c r="AM33" s="8"/>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
@@ -3846,7 +3912,9 @@
       <c r="AL34" s="8">
         <v>0</v>
       </c>
-      <c r="AM34" s="8"/>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
@@ -3921,7 +3989,9 @@
       <c r="AL35" s="8">
         <v>0</v>
       </c>
-      <c r="AM35" s="8"/>
+      <c r="AM35" s="8">
+        <v>0</v>
+      </c>
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
@@ -4004,7 +4074,9 @@
       <c r="AL36" s="8">
         <v>0</v>
       </c>
-      <c r="AM36" s="8"/>
+      <c r="AM36" s="8">
+        <v>0</v>
+      </c>
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
@@ -4089,7 +4161,9 @@
       <c r="AL37" s="8">
         <v>0</v>
       </c>
-      <c r="AM37" s="8"/>
+      <c r="AM37" s="8">
+        <v>0</v>
+      </c>
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
@@ -4170,7 +4244,9 @@
       <c r="AL38" s="8">
         <v>0</v>
       </c>
-      <c r="AM38" s="8"/>
+      <c r="AM38" s="8">
+        <v>0</v>
+      </c>
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
       <c r="AP38" s="8"/>
@@ -4251,7 +4327,9 @@
       <c r="AL39" s="8">
         <v>0</v>
       </c>
-      <c r="AM39" s="8"/>
+      <c r="AM39" s="8">
+        <v>0</v>
+      </c>
       <c r="AN39" s="8"/>
       <c r="AO39" s="9"/>
       <c r="AP39" s="8"/>
@@ -4463,7 +4541,9 @@
       <c r="AL41" s="8">
         <v>0</v>
       </c>
-      <c r="AM41" s="8"/>
+      <c r="AM41" s="8">
+        <v>0</v>
+      </c>
       <c r="AN41" s="8"/>
       <c r="AO41" s="13"/>
       <c r="AP41" s="8"/>
@@ -4546,7 +4626,9 @@
       <c r="AL42" s="8">
         <v>0</v>
       </c>
-      <c r="AM42" s="8"/>
+      <c r="AM42" s="8">
+        <v>0</v>
+      </c>
       <c r="AN42" s="8"/>
       <c r="AO42" s="13"/>
       <c r="AP42" s="8"/>
@@ -4877,7 +4959,9 @@
       <c r="AL45" s="10">
         <v>0</v>
       </c>
-      <c r="AM45" s="10"/>
+      <c r="AM45" s="10">
+        <v>0</v>
+      </c>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
@@ -4960,7 +5044,9 @@
       <c r="AL46" s="10">
         <v>0</v>
       </c>
-      <c r="AM46" s="10"/>
+      <c r="AM46" s="10">
+        <v>0</v>
+      </c>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
@@ -5043,7 +5129,9 @@
       <c r="AL47" s="10">
         <v>0</v>
       </c>
-      <c r="AM47" s="10"/>
+      <c r="AM47" s="10">
+        <v>0</v>
+      </c>
       <c r="AN47" s="10"/>
       <c r="AO47" s="10"/>
       <c r="AP47" s="10"/>
@@ -5255,7 +5343,9 @@
       <c r="AL49" s="8">
         <v>0</v>
       </c>
-      <c r="AM49" s="8"/>
+      <c r="AM49" s="8">
+        <v>0</v>
+      </c>
       <c r="AN49" s="8"/>
       <c r="AO49" s="12"/>
       <c r="AP49" s="8"/>
@@ -5332,7 +5422,9 @@
       <c r="AL50" s="8">
         <v>0</v>
       </c>
-      <c r="AM50" s="8"/>
+      <c r="AM50" s="8">
+        <v>0</v>
+      </c>
       <c r="AN50" s="8"/>
       <c r="AO50" s="8"/>
       <c r="AP50" s="8"/>
